--- a/data/zh-cn/age.xlsx
+++ b/data/zh-cn/age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\习概\游戏\lifeRestart-main\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B90D8-0835-4CB9-A736-504999BEF9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398FE5F-B076-4AEB-8F52-3A51856AA3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
